--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0004848095168302318</v>
+        <v>0.0004821219520434317</v>
       </c>
       <c r="E2">
-        <v>0.0004848095168302318</v>
+        <v>0.0004821219520434317</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8839119023288247</v>
+        <v>0.8843835049236194</v>
       </c>
       <c r="E3">
-        <v>0.8839119023288247</v>
+        <v>0.8843835049236194</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0001435234067195784</v>
+        <v>0.0001426636193318267</v>
       </c>
       <c r="E4">
-        <v>0.0001435234067195784</v>
+        <v>0.0001426636193318267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9.162106508883237E-18</v>
+        <v>8.944065204798246E-18</v>
       </c>
       <c r="E5">
-        <v>9.162106508883237E-18</v>
+        <v>8.944065204798246E-18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5684589834910169</v>
+        <v>0.5723590334069846</v>
       </c>
       <c r="E6">
-        <v>0.5684589834910169</v>
+        <v>0.5723590334069846</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.982580213377816</v>
+        <v>0.9999999770188902</v>
       </c>
       <c r="E7">
-        <v>0.01741978662218402</v>
+        <v>2.298110979293E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9858427490898199</v>
+        <v>0.9903156112971674</v>
       </c>
       <c r="E8">
-        <v>0.01415725091018005</v>
+        <v>0.009684388702832614</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9818511929828028</v>
+        <v>0.9999980311993291</v>
       </c>
       <c r="E9">
-        <v>0.01814880701719723</v>
+        <v>1.968800670937298E-06</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9847805124333899</v>
+        <v>0.2812967851856813</v>
       </c>
       <c r="E10">
-        <v>0.01521948756661007</v>
+        <v>0.7187032148143186</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9823139458088747</v>
+        <v>0.9556071031131752</v>
       </c>
       <c r="E11">
-        <v>0.01768605419112534</v>
+        <v>0.0443928968868248</v>
       </c>
       <c r="F11">
-        <v>0.3077753782272339</v>
+        <v>0.4331058859825134</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.172055932819559E-07</v>
+        <v>1.179622106730826E-07</v>
       </c>
       <c r="E12">
-        <v>1.172055932819559E-07</v>
+        <v>1.179622106730826E-07</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9961683101421245</v>
+        <v>0.9961414439456551</v>
       </c>
       <c r="E13">
-        <v>0.9961683101421245</v>
+        <v>0.9961414439456551</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4.60614867610465E-07</v>
+        <v>4.617682079374064E-07</v>
       </c>
       <c r="E14">
-        <v>4.60614867610465E-07</v>
+        <v>4.617682079374064E-07</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.282160534177163E-22</v>
+        <v>1.28430598019855E-22</v>
       </c>
       <c r="E15">
-        <v>1.282160534177163E-22</v>
+        <v>1.28430598019855E-22</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5041945781404289</v>
+        <v>0.5015821953256491</v>
       </c>
       <c r="E16">
-        <v>0.5041945781404289</v>
+        <v>0.5015821953256491</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.969425145850903</v>
+        <v>0.9999999999999774</v>
       </c>
       <c r="E17">
-        <v>0.030574854149097</v>
+        <v>2.264854970235319E-14</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9748521544191707</v>
+        <v>0.9963149205326404</v>
       </c>
       <c r="E18">
-        <v>0.02514784558082928</v>
+        <v>0.003685079467359631</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9691136785438086</v>
+        <v>0.9999999988078023</v>
       </c>
       <c r="E19">
-        <v>0.03088632145619141</v>
+        <v>1.192197673915985E-09</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9721521930640912</v>
+        <v>0.08231867041990477</v>
       </c>
       <c r="E20">
-        <v>0.02784780693590883</v>
+        <v>0.9176813295800952</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9677657737402593</v>
+        <v>0.9635051288125224</v>
       </c>
       <c r="E21">
-        <v>0.03223422625974071</v>
+        <v>0.03649487118747763</v>
       </c>
       <c r="F21">
-        <v>0.641492486000061</v>
+        <v>0.8791804313659668</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
